--- a/ig/ch-term/ch-vacd-vaccines-sm-sct-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-sm-sct-cm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-term/ConceptMap/ch-vacd-vaccines-sm-sct-cm</t>
+    <t>http://fhir.ch/ig/ch-vacd/ConceptMap/ch-vacd-vaccines-sm-sct-cm</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -811,7 +811,7 @@
     <t>68752</t>
   </si>
   <si>
-    <t>Vaxneuvance, Injektionssuspension</t>
+    <t>Vaxneuvance</t>
   </si>
   <si>
     <t>1252708008</t>
@@ -823,7 +823,7 @@
     <t>69465</t>
   </si>
   <si>
-    <t>Spikevax XBB.1.5 0.10 mg/ml, Dispersion zur Injektion</t>
+    <t>Spikevax XBB.1.5 0.10 mg/ml</t>
   </si>
   <si>
     <t>69484</t>
@@ -832,7 +832,274 @@
     <t>69488</t>
   </si>
   <si>
-    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis, Injektionsdispersion</t>
+    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis</t>
+  </si>
+  <si>
+    <t>69815</t>
+  </si>
+  <si>
+    <t>Comirnaty Omicron XBB.1.5, 0.042 mg</t>
+  </si>
+  <si>
+    <t>69403</t>
+  </si>
+  <si>
+    <t>Qdenga 0.5 ml</t>
+  </si>
+  <si>
+    <t>840563003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Dengue virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>69222</t>
+  </si>
+  <si>
+    <t>Prevenar 20</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>Inflexal V</t>
+  </si>
+  <si>
+    <t>1181000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>Fluarix</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>Mutagrip</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>Influvac</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>Influvac plus</t>
+  </si>
+  <si>
+    <t>58317</t>
+  </si>
+  <si>
+    <t>Fluad</t>
+  </si>
+  <si>
+    <t>59267</t>
+  </si>
+  <si>
+    <t>Agrippal</t>
+  </si>
+  <si>
+    <t>58271</t>
+  </si>
+  <si>
+    <t>Optaflu</t>
+  </si>
+  <si>
+    <t>62961</t>
+  </si>
+  <si>
+    <t>Fluarix Tetra</t>
+  </si>
+  <si>
+    <t>66427</t>
+  </si>
+  <si>
+    <t>VaxigripTetra</t>
+  </si>
+  <si>
+    <t>68087</t>
+  </si>
+  <si>
+    <t>Influvac Tetra</t>
+  </si>
+  <si>
+    <t>67482</t>
+  </si>
+  <si>
+    <t>Flucelvax Tetra</t>
+  </si>
+  <si>
+    <t>67704</t>
+  </si>
+  <si>
+    <t>Efluelda 0.7 ml</t>
+  </si>
+  <si>
+    <t>68462</t>
+  </si>
+  <si>
+    <t>Fluenz Tetra</t>
+  </si>
+  <si>
+    <t>66161</t>
+  </si>
+  <si>
+    <t>Foclivia (Durchstechflasche)</t>
+  </si>
+  <si>
+    <t>836377006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>66156</t>
+  </si>
+  <si>
+    <t>Foclivia (Fertigspritze)</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Varilrix</t>
+  </si>
+  <si>
+    <t>836495005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>Varivax</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>BCG SSI</t>
+  </si>
+  <si>
+    <t>836402002</t>
+  </si>
+  <si>
+    <t>Vaccine product containing live attenuated Mycobacterium bovis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>68003</t>
+  </si>
+  <si>
+    <t>Supemtek 0.5 ml</t>
+  </si>
+  <si>
+    <t>836375003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Hepatitis A virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>68358</t>
+  </si>
+  <si>
+    <t>Ervebo</t>
+  </si>
+  <si>
+    <t>836421005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Ebolavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>69310</t>
+  </si>
+  <si>
+    <t>AREXVY</t>
+  </si>
+  <si>
+    <t>51311000087100</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human orthopneumovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>69913</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 0.042 mg, Injektionsdispersion in einer Fertigspritze, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-01</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 30 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-02</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 10 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69788</t>
+  </si>
+  <si>
+    <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>69691</t>
+  </si>
+  <si>
+    <t>Abrysvo, Pulver und Lösungsmittel zur Herstellung einer Injektionslösung, Pfizer AG</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>Mencevax ACWY</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>787859002</t>
+  </si>
+  <si>
+    <t>Vaccine product (medicinal product)</t>
+  </si>
+  <si>
+    <t>66037</t>
+  </si>
+  <si>
+    <t>Menjugate liquid</t>
+  </si>
+  <si>
+    <t>65730</t>
+  </si>
+  <si>
+    <t>Bexsero</t>
+  </si>
+  <si>
+    <t>69173</t>
+  </si>
+  <si>
+    <t>Jynneos</t>
+  </si>
+  <si>
+    <t>68221</t>
+  </si>
+  <si>
+    <t>MenQuadfi</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
@@ -1148,6 +1415,174 @@
   </si>
   <si>
     <t>Orochol E</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>MoRu-Viraten</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Triviraten</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Infanrix Penta</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Meruvax</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Infanrix DTPa+Hib</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Acel P</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Anatoxal Di</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>BCG Vaccin Mérieux</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Biviraten</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Ervevax</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Infanrix DTPa-HBV</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Vaccin méningococcique A+C Mérieux</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>MM Vax</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Tetramune</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Rubeaten</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Rudivax</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Almevax</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Rimparix</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Rubevac</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Eolarix</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Celtura</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Focetria</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Pandemrix</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Prohibit DTP</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Variola</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Di Anatoxal</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Vaccin variole</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2951,6 +3386,601 @@
         <v>227</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2958,7 +3988,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2983,7 +4013,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>35</v>
@@ -3000,10 +4030,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>39</v>
@@ -3017,10 +4047,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>39</v>
@@ -3034,10 +4064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>39</v>
@@ -3051,10 +4081,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>39</v>
@@ -3068,10 +4098,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>282</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>39</v>
@@ -3085,10 +4115,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>39</v>
@@ -3102,10 +4132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>39</v>
@@ -3119,10 +4149,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
@@ -3136,10 +4166,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
@@ -3153,10 +4183,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>292</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
@@ -3170,10 +4200,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>39</v>
@@ -3187,10 +4217,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>39</v>
@@ -3204,10 +4234,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>39</v>
@@ -3221,10 +4251,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>39</v>
@@ -3238,10 +4268,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>39</v>
@@ -3255,10 +4285,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>305</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>39</v>
@@ -3272,10 +4302,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>39</v>
@@ -3289,10 +4319,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>39</v>
@@ -3306,10 +4336,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>39</v>
@@ -3323,10 +4353,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>39</v>
@@ -3340,10 +4370,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>39</v>
@@ -3357,10 +4387,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>39</v>
@@ -3374,10 +4404,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>39</v>
@@ -3391,10 +4421,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>39</v>
@@ -3408,10 +4438,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>39</v>
@@ -3425,10 +4455,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>39</v>
@@ -3442,10 +4472,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>415</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
@@ -3459,10 +4489,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>39</v>
@@ -3476,10 +4506,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>39</v>
@@ -3493,10 +4523,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>39</v>
@@ -3510,10 +4540,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -3527,10 +4557,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>425</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>39</v>
@@ -3544,10 +4574,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>427</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
@@ -3561,10 +4591,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>39</v>
@@ -3578,10 +4608,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>39</v>
@@ -3595,10 +4625,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
@@ -3612,10 +4642,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>436</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>39</v>
@@ -3629,10 +4659,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>39</v>
@@ -3646,10 +4676,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -3663,10 +4693,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>441</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>39</v>
@@ -3680,10 +4710,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>443</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>39</v>
@@ -3697,10 +4727,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>39</v>
@@ -3714,10 +4744,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>448</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>39</v>
@@ -3731,10 +4761,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>39</v>
@@ -3748,10 +4778,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>451</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>39</v>
@@ -3765,10 +4795,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>39</v>
@@ -3782,10 +4812,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>39</v>
@@ -3799,10 +4829,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>39</v>
@@ -3816,10 +4846,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>39</v>
@@ -3833,10 +4863,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -3850,10 +4880,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>39</v>
@@ -3867,10 +4897,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>39</v>
@@ -3880,6 +4910,482 @@
       </c>
       <c r="E54" t="s" s="2">
         <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
